--- a/Dataset/valset_log.xlsx
+++ b/Dataset/valset_log.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,16 +449,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5514</v>
+        <v>8344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>p267_077</t>
+          <t>p286_138</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -467,16 +467,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3993</v>
+        <v>4431</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p268_228</t>
+          <t>p233_271</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -485,16 +485,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6833</v>
+        <v>2164</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>p227_269</t>
+          <t>p276_140</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -503,16 +503,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5127</v>
+        <v>2044</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>p239_190</t>
+          <t>p276_018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -521,16 +521,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1565</v>
+        <v>9314</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>p269_249</t>
+          <t>p258_180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -539,16 +539,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9358</v>
+        <v>9194</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>p258_224</t>
+          <t>p258_056</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -557,16 +557,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7198</v>
+        <v>8224</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>p274_246</t>
+          <t>p286_016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -575,16 +575,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3339</v>
+        <v>4351</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>p231_021</t>
+          <t>p233_185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -593,16 +593,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11124</v>
+        <v>8751</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>p270_004</t>
+          <t>p259_088</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -611,16 +611,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9676</v>
+        <v>2526</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>p273_134</t>
+          <t>p250_050</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -629,11 +629,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8146</v>
+        <v>1803</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>p243_335</t>
+          <t>p282_140</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -647,16 +647,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4179</v>
+        <v>8416</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>p233_004</t>
+          <t>p286_211</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -665,16 +665,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9880</v>
+        <v>1369</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>p273_344</t>
+          <t>p269_048</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -683,16 +683,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4351</v>
+        <v>7946</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>p233_185</t>
+          <t>p243_131</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -701,16 +701,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>11083</v>
+        <v>8106</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>p287_387</t>
+          <t>p243_293</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -719,16 +719,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8316</v>
+        <v>7906</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>p286_110</t>
+          <t>p243_090</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -737,16 +737,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3162</v>
+        <v>6526</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>p228_212</t>
+          <t>p278_362</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -755,16 +755,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1321</v>
+        <v>9498</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>p277_463</t>
+          <t>p258_367</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -773,11 +773,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1441</v>
+        <v>11320</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>p269_123</t>
+          <t>p270_204</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -791,16 +791,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7258</v>
+        <v>10863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>p274_308</t>
+          <t>p287_164</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -809,16 +809,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10271</v>
+        <v>4667</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>p226_315</t>
+          <t>p230_130</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -827,16 +827,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1262</v>
+        <v>3599</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>p277_396</t>
+          <t>p231_295</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -845,16 +845,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5618</v>
+        <v>3318</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>p267_183</t>
+          <t>p228_370</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -863,16 +863,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4045</v>
+        <v>8248</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>p268_280</t>
+          <t>p286_042</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -881,16 +881,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10352</v>
+        <v>8348</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>p254_028</t>
+          <t>p286_142</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -899,16 +899,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8859</v>
+        <v>4687</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>p259_196</t>
+          <t>p230_151</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -917,16 +917,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9314</v>
+        <v>8963</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>p258_180</t>
+          <t>p259_303</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -935,16 +935,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8715</v>
+        <v>10384</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>p259_052</t>
+          <t>p254_061</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -953,16 +953,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5099</v>
+        <v>5429</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>p239_162</t>
+          <t>p239_494</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -971,16 +971,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>9640</v>
+        <v>10763</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>p273_098</t>
+          <t>p287_063</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -989,11 +989,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6546</v>
+        <v>2818</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>p278_382</t>
+          <t>p250_354</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1007,16 +1007,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1645</v>
+        <v>11460</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>p269_331</t>
+          <t>p270_349</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>753</v>
+        <v>11312</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>p244_274</t>
+          <t>p270_196</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1043,16 +1043,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>10227</v>
+        <v>2060</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>p226_268</t>
+          <t>p276_035</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1061,16 +1061,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>5454</v>
+        <v>8975</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>p267_017</t>
+          <t>p259_316</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1079,16 +1079,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>7602</v>
+        <v>7394</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>p279_187</t>
+          <t>p274_446</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1097,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>10219</v>
+        <v>7490</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>p226_260</t>
+          <t>p279_074</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1115,16 +1115,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3447</v>
+        <v>1473</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>p231_136</t>
+          <t>p269_155</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1133,16 +1133,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6649</v>
+        <v>7690</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>p227_077</t>
+          <t>p279_276</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1151,11 +1151,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>7650</v>
+        <v>1353</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>p279_236</t>
+          <t>p269_032</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1169,16 +1169,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4639</v>
+        <v>3194</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>p230_101</t>
+          <t>p228_244</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1187,16 +1187,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9872</v>
+        <v>1677</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>p273_336</t>
+          <t>p269_364</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1205,16 +1205,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>459</v>
+        <v>11099</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>p236_477</t>
+          <t>p287_403</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1223,16 +1223,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>9824</v>
+        <v>4491</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>p273_285</t>
+          <t>p233_334</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1241,16 +1241,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>8923</v>
+        <v>4125</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>p259_262</t>
+          <t>p268_361</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1259,11 +1259,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>10819</v>
+        <v>8644</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>p287_119</t>
+          <t>p286_449</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1277,11 +1277,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>11316</v>
+        <v>10560</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>p270_200</t>
+          <t>p254_246</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1295,16 +1295,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4367</v>
+        <v>7974</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>p233_201</t>
+          <t>p243_159</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1313,16 +1313,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3383</v>
+        <v>1847</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>p231_068</t>
+          <t>p282_185</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1331,16 +1331,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>2336</v>
+        <v>1190</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>p276_318</t>
+          <t>p277_310</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1349,11 +1349,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4387</v>
+        <v>4347</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>p233_226</t>
+          <t>p233_181</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1367,16 +1367,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>7762</v>
+        <v>4599</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>p279_350</t>
+          <t>p230_057</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1385,16 +1385,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>135</v>
+        <v>411</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>p236_148</t>
+          <t>p236_429</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1403,16 +1403,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4355</v>
+        <v>7094</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>p233_189</t>
+          <t>p274_134</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1421,16 +1421,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>8735</v>
+        <v>3451</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>p259_072</t>
+          <t>p231_140</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1439,16 +1439,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>9760</v>
+        <v>6099</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>p273_219</t>
+          <t>p256_252</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1457,16 +1457,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4069</v>
+        <v>8887</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>p268_305</t>
+          <t>p259_226</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1475,16 +1475,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>9398</v>
+        <v>3583</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>p258_265</t>
+          <t>p231_276</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1493,11 +1493,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>9362</v>
+        <v>10348</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>p258_228</t>
+          <t>p254_024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1511,16 +1511,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>5718</v>
+        <v>9087</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>p267_285</t>
+          <t>p259_429</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1529,11 +1529,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4691</v>
+        <v>9995</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>p230_155</t>
+          <t>p226_024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1547,16 +1547,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>9672</v>
+        <v>1979</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>p273_130</t>
+          <t>p282_321</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1565,16 +1565,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1767</v>
+        <v>7802</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>p282_081</t>
+          <t>p279_390</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1583,16 +1583,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>8158</v>
+        <v>8312</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>p243_347</t>
+          <t>p286_106</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1601,16 +1601,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6310</v>
+        <v>8356</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>p278_146</t>
+          <t>p286_150</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1619,16 +1619,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>415</v>
+        <v>11508</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>p236_433</t>
+          <t>p270_399</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1637,16 +1637,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4439</v>
+        <v>7150</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>p233_279</t>
+          <t>p274_195</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1655,16 +1655,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>6149</v>
+        <v>6354</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>p256_303</t>
+          <t>p278_190</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1673,16 +1673,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>5963</v>
+        <v>6554</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>p256_116</t>
+          <t>p278_390</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1691,16 +1691,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>7398</v>
+        <v>5423</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>p274_450</t>
+          <t>p239_488</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1709,11 +1709,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>7230</v>
+        <v>6801</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>p274_279</t>
+          <t>p227_237</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1727,16 +1727,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>869</v>
+        <v>4815</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>p244_393</t>
+          <t>p230_285</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1745,16 +1745,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>2554</v>
+        <v>4419</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>p250_078</t>
+          <t>p233_259</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1763,11 +1763,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1365</v>
+        <v>2762</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>p269_044</t>
+          <t>p250_295</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1781,11 +1781,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1719</v>
+        <v>2392</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>p282_007</t>
+          <t>p276_376</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1794,6 +1794,96 @@
         </is>
       </c>
       <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>p236_461</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>5846</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>p267_420</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>3282</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>p228_334</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>5482</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>p267_045</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>7502</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>p279_086</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1808,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,16 +1919,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3638</v>
+        <v>7793</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>p231_339</t>
+          <t>p279_381</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1847,16 +1937,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4530</v>
+        <v>740</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p233_374</t>
+          <t>p244_261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1865,16 +1955,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2945</v>
+        <v>3824</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>p250_483</t>
+          <t>p268_057</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1883,11 +1973,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9919</v>
+        <v>8918</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>p273_384</t>
+          <t>p259_257</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1901,16 +1991,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7557</v>
+        <v>2773</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>p279_142</t>
+          <t>p250_308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1919,16 +2009,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3658</v>
+        <v>5982</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>p231_360</t>
+          <t>p256_135</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1937,16 +2027,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7429</v>
+        <v>3374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>p279_013</t>
+          <t>p231_058</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1955,16 +2045,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7145</v>
+        <v>6062</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>p274_190</t>
+          <t>p256_215</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1973,16 +2063,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6329</v>
+        <v>7825</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>p278_165</t>
+          <t>p243_007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1991,16 +2081,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10786</v>
+        <v>11487</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>p287_086</t>
+          <t>p270_378</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2009,11 +2099,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3936</v>
+        <v>10018</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>p268_171</t>
+          <t>p226_049</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2027,16 +2117,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9245</v>
+        <v>3686</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>p258_110</t>
+          <t>p231_389</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2045,16 +2135,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9317</v>
+        <v>1265</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>p258_183</t>
+          <t>p277_400</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2063,16 +2153,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7085</v>
+        <v>366</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>p274_125</t>
+          <t>p236_384</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2081,16 +2171,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4486</v>
+        <v>8025</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>p233_329</t>
+          <t>p243_210</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2099,16 +2189,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10946</v>
+        <v>7665</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>p287_250</t>
+          <t>p279_251</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2117,16 +2207,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8978</v>
+        <v>9703</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>p259_319</t>
+          <t>p273_161</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2135,16 +2225,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8243</v>
+        <v>11319</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>p286_036</t>
+          <t>p270_203</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2153,16 +2243,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2781</v>
+        <v>9863</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>p250_316</t>
+          <t>p273_327</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2171,16 +2261,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7173</v>
+        <v>4088</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>p274_220</t>
+          <t>p268_324</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2189,16 +2279,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6648</v>
+        <v>3598</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>p227_076</t>
+          <t>p231_294</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2207,16 +2297,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4970</v>
+        <v>10782</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>p239_031</t>
+          <t>p287_082</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2225,16 +2315,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8730</v>
+        <v>8942</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>p259_067</t>
+          <t>p259_282</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2243,11 +2333,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>358</v>
+        <v>9903</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>p236_376</t>
+          <t>p273_368</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2261,16 +2351,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10870</v>
+        <v>4936</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>p287_171</t>
+          <t>p230_414</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2279,16 +2369,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3422</v>
+        <v>10623</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>p231_111</t>
+          <t>p254_313</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2297,16 +2387,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>5186</v>
+        <v>218</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>p239_249</t>
+          <t>p236_234</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2315,16 +2405,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>800</v>
+        <v>6545</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>p244_322</t>
+          <t>p278_381</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2333,16 +2423,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>8958</v>
+        <v>8307</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>p259_298</t>
+          <t>p286_101</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2351,16 +2441,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4598</v>
+        <v>1580</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>p230_056</t>
+          <t>p269_265</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2369,16 +2459,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3033</v>
+        <v>10690</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>p228_082</t>
+          <t>p254_390</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2387,16 +2477,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2881</v>
+        <v>6106</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>p250_418</t>
+          <t>p256_259</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2405,16 +2495,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4682</v>
+        <v>11351</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>p230_146</t>
+          <t>p270_235</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -2423,16 +2513,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6221</v>
+        <v>6684</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>p278_056</t>
+          <t>p227_112</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2441,16 +2531,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4330</v>
+        <v>796</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>p233_164</t>
+          <t>p244_318</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2459,16 +2549,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>7025</v>
+        <v>2509</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>p274_064</t>
+          <t>p250_032</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -2477,16 +2567,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>8223</v>
+        <v>11094</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>p286_015</t>
+          <t>p287_398</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2495,16 +2585,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3157</v>
+        <v>6237</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>p228_207</t>
+          <t>p278_072</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -2513,16 +2603,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>965</v>
+        <v>10122</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>p277_071</t>
+          <t>p226_157</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2531,11 +2621,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>9895</v>
+        <v>9655</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>p273_360</t>
+          <t>p273_113</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2549,16 +2639,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>10178</v>
+        <v>6042</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>p226_217</t>
+          <t>p256_195</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2567,16 +2657,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>10030</v>
+        <v>74</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>p226_061</t>
+          <t>p236_083</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2585,16 +2675,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>10305</v>
+        <v>1396</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>p226_351</t>
+          <t>p269_075</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2603,16 +2693,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>386</v>
+        <v>9779</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>p236_404</t>
+          <t>p273_238</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2621,16 +2711,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>8267</v>
+        <v>4662</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>p286_061</t>
+          <t>p230_125</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2639,16 +2729,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>8113</v>
+        <v>3554</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>p243_300</t>
+          <t>p231_247</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2657,16 +2747,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>9189</v>
+        <v>6561</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>p258_051</t>
+          <t>p278_397</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2675,16 +2765,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>484</v>
+        <v>5962</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>p236_502</t>
+          <t>p256_115</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2693,16 +2783,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>2367</v>
+        <v>8674</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>p276_350</t>
+          <t>p259_011</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2711,16 +2801,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>10379</v>
+        <v>10062</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>p254_056</t>
+          <t>p226_095</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2729,16 +2819,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>2283</v>
+        <v>1926</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>p276_263</t>
+          <t>p282_268</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2747,16 +2837,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4766</v>
+        <v>10335</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>p230_234</t>
+          <t>p254_011</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2765,16 +2855,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1970</v>
+        <v>2025</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>p282_312</t>
+          <t>p282_367</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2783,16 +2873,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3888</v>
+        <v>9389</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>p268_121</t>
+          <t>p258_256</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2801,16 +2891,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>8057</v>
+        <v>3690</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>p243_243</t>
+          <t>p231_393</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2819,16 +2909,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>868</v>
+        <v>3730</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>p244_392</t>
+          <t>p231_436</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2837,16 +2927,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>2749</v>
+        <v>5282</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>p250_282</t>
+          <t>p239_346</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2855,16 +2945,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>9835</v>
+        <v>1384</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>p273_297</t>
+          <t>p269_063</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2873,16 +2963,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3037</v>
+        <v>3792</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>p228_086</t>
+          <t>p268_025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2891,16 +2981,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>9449</v>
+        <v>3832</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>p258_316</t>
+          <t>p268_065</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2909,11 +2999,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>7345</v>
+        <v>382</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>p274_397</t>
+          <t>p236_400</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2927,16 +3017,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>8587</v>
+        <v>5990</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>p286_387</t>
+          <t>p256_143</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2945,16 +3035,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6002</v>
+        <v>2251</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>p256_155</t>
+          <t>p276_229</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2963,16 +3053,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>2059</v>
+        <v>1307</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>p276_034</t>
+          <t>p277_448</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2981,11 +3071,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4156</v>
+        <v>1782</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>p268_392</t>
+          <t>p282_102</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2999,16 +3089,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>5022</v>
+        <v>3746</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>p239_085</t>
+          <t>p231_452</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3017,11 +3107,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>2665</v>
+        <v>11010</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>p250_192</t>
+          <t>p287_314</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3035,16 +3125,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>374</v>
+        <v>6989</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>p236_392</t>
+          <t>p274_028</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3053,16 +3143,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1412</v>
+        <v>4202</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>p269_091</t>
+          <t>p233_028</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3071,16 +3161,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>2917</v>
+        <v>7765</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>p250_454</t>
+          <t>p279_353</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3089,16 +3179,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>11351</v>
+        <v>6393</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>p270_235</t>
+          <t>p278_229</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3107,16 +3197,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4194</v>
+        <v>4614</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>p233_020</t>
+          <t>p230_073</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3125,16 +3215,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>6030</v>
+        <v>11163</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>p256_183</t>
+          <t>p270_043</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3143,16 +3233,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>10102</v>
+        <v>3081</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>p226_136</t>
+          <t>p228_130</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3161,19 +3251,109 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>6571</v>
+        <v>3201</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>p278_407</t>
+          <t>p228_251</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>p282_175</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>5182</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>p239_245</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>8531</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>p286_329</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>9787</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>p273_246</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>7621</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>p279_206</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3188,7 +3368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3209,16 +3389,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11446</v>
+        <v>213</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>p270_335</t>
+          <t>p236_229</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3227,16 +3407,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7000</v>
+        <v>8179</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p274_039</t>
+          <t>p243_369</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3245,16 +3425,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7372</v>
+        <v>9798</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>p274_424</t>
+          <t>p273_257</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3263,16 +3443,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9440</v>
+        <v>10065</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>p258_307</t>
+          <t>p226_098</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3281,16 +3461,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2820</v>
+        <v>5612</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>p250_356</t>
+          <t>p267_177</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3299,16 +3479,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6013</v>
+        <v>6867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>p256_166</t>
+          <t>p227_303</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3317,11 +3497,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2473</v>
+        <v>9512</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>p276_460</t>
+          <t>p258_381</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3335,11 +3515,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9512</v>
+        <v>2892</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>p258_381</t>
+          <t>p250_429</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3353,16 +3533,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9742</v>
+        <v>1144</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>p273_200</t>
+          <t>p277_260</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3371,16 +3551,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8262</v>
+        <v>8374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>p286_056</t>
+          <t>p286_168</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3389,16 +3569,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6041</v>
+        <v>10410</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>p256_194</t>
+          <t>p254_087</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3407,16 +3587,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9997</v>
+        <v>9504</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>p226_026</t>
+          <t>p258_373</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3425,16 +3605,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10562</v>
+        <v>3445</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>p254_248</t>
+          <t>p231_134</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3443,16 +3623,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3764</v>
+        <v>3164</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>p231_471</t>
+          <t>p228_214</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3461,16 +3641,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4805</v>
+        <v>4055</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>p230_274</t>
+          <t>p268_291</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3479,16 +3659,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3927</v>
+        <v>9304</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>p268_162</t>
+          <t>p258_170</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3497,16 +3677,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6081</v>
+        <v>1519</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>p256_234</t>
+          <t>p269_203</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3515,16 +3695,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1901</v>
+        <v>9536</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>p282_243</t>
+          <t>p258_406</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3533,16 +3713,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11093</v>
+        <v>8821</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>p287_397</t>
+          <t>p259_158</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3551,16 +3731,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7800</v>
+        <v>10442</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>p279_388</t>
+          <t>p254_123</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3569,16 +3749,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>9300</v>
+        <v>4293</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>p258_166</t>
+          <t>p233_126</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -3587,16 +3767,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>10885</v>
+        <v>8201</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>p287_186</t>
+          <t>p243_391</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -3605,16 +3785,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>465</v>
+        <v>6731</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>p236_483</t>
+          <t>p227_160</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -3623,16 +3803,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>10306</v>
+        <v>7000</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>p226_352</t>
+          <t>p274_039</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -3641,16 +3821,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>647</v>
+        <v>1813</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>p244_165</t>
+          <t>p282_150</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -3659,11 +3839,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6464</v>
+        <v>10229</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>p278_300</t>
+          <t>p226_270</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3677,16 +3857,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6163</v>
+        <v>9196</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>p256_317</t>
+          <t>p258_058</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -3695,16 +3875,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>5648</v>
+        <v>8801</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>p267_214</t>
+          <t>p259_138</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -3713,16 +3893,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6988</v>
+        <v>10841</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>p274_027</t>
+          <t>p287_142</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -3731,16 +3911,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>8538</v>
+        <v>4353</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>p286_337</t>
+          <t>p233_187</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -3749,11 +3929,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2246</v>
+        <v>1539</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>p276_224</t>
+          <t>p269_223</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3767,16 +3947,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>9424</v>
+        <v>8266</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>p258_291</t>
+          <t>p286_060</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3785,11 +3965,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>9894</v>
+        <v>10201</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>p273_359</t>
+          <t>p226_241</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3803,16 +3983,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1216</v>
+        <v>2138</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>p277_340</t>
+          <t>p276_114</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -3821,16 +4001,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>10510</v>
+        <v>109</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>p254_195</t>
+          <t>p236_122</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -3839,16 +4019,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>8402</v>
+        <v>3709</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>p286_196</t>
+          <t>p231_414</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -3857,16 +4037,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2174</v>
+        <v>7272</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>p276_150</t>
+          <t>p274_323</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -3875,11 +4055,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>10674</v>
+        <v>4577</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>p254_372</t>
+          <t>p230_035</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3893,16 +4073,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>883</v>
+        <v>10514</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>p244_407</t>
+          <t>p254_199</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -3911,16 +4091,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>10713</v>
+        <v>8238</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>p287_010</t>
+          <t>p286_031</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3929,16 +4109,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>2736</v>
+        <v>11314</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>p250_268</t>
+          <t>p270_198</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -3947,16 +4127,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>8274</v>
+        <v>679</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>p286_068</t>
+          <t>p244_198</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3965,11 +4145,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3713</v>
+        <v>193</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>p231_418</t>
+          <t>p236_209</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3983,16 +4163,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1363</v>
+        <v>3353</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>p269_042</t>
+          <t>p231_036</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -4001,16 +4181,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>956</v>
+        <v>4741</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>p277_062</t>
+          <t>p230_208</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -4019,11 +4199,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4409</v>
+        <v>3433</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>p233_249</t>
+          <t>p231_122</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4037,16 +4217,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4381</v>
+        <v>10977</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>p233_220</t>
+          <t>p287_281</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -4055,16 +4235,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>2378</v>
+        <v>2262</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>p276_361</t>
+          <t>p276_241</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -4073,16 +4253,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>5708</v>
+        <v>6216</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>p267_275</t>
+          <t>p278_051</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -4091,16 +4271,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>8677</v>
+        <v>11130</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>p259_014</t>
+          <t>p270_010</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -4109,16 +4289,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6927</v>
+        <v>7628</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>p227_366</t>
+          <t>p279_213</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -4127,16 +4307,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>6484</v>
+        <v>6256</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>p278_320</t>
+          <t>p278_091</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -4145,16 +4325,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>7924</v>
+        <v>4989</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>p243_108</t>
+          <t>p239_050</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -4163,16 +4343,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>2696</v>
+        <v>10061</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>p250_226</t>
+          <t>p226_094</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -4181,16 +4361,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>6671</v>
+        <v>6863</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>p227_099</t>
+          <t>p227_299</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -4199,16 +4379,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4901</v>
+        <v>5977</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>p230_376</t>
+          <t>p256_130</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -4217,16 +4397,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4365</v>
+        <v>5241</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>p233_199</t>
+          <t>p239_304</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -4235,16 +4415,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>6976</v>
+        <v>21</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>p274_015</t>
+          <t>p236_026</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -4253,16 +4433,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1712</v>
+        <v>1463</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>p269_400</t>
+          <t>p269_145</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -4271,16 +4451,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>10430</v>
+        <v>8885</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>p254_109</t>
+          <t>p259_224</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -4289,11 +4469,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>7024</v>
+        <v>8080</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>p274_063</t>
+          <t>p243_266</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4307,16 +4487,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>11334</v>
+        <v>6548</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>p270_218</t>
+          <t>p278_384</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -4325,16 +4505,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>7812</v>
+        <v>10845</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>p279_400</t>
+          <t>p287_146</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -4343,16 +4523,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>10709</v>
+        <v>6388</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>p287_006</t>
+          <t>p278_224</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -4361,16 +4541,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>5612</v>
+        <v>1387</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>p267_177</t>
+          <t>p269_066</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -4379,16 +4559,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1659</v>
+        <v>5464</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>p269_345</t>
+          <t>p267_027</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -4397,16 +4577,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>9232</v>
+        <v>2054</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>p258_096</t>
+          <t>p276_028</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -4415,16 +4595,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>2964</v>
+        <v>2624</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>p228_006</t>
+          <t>p250_151</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -4433,16 +4613,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>2608</v>
+        <v>1044</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>p250_134</t>
+          <t>p277_156</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -4451,16 +4631,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3072</v>
+        <v>6352</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>p228_121</t>
+          <t>p278_188</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -4469,16 +4649,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>855</v>
+        <v>6879</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>p244_379</t>
+          <t>p227_315</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -4487,16 +4667,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>10161</v>
+        <v>3915</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>p226_200</t>
+          <t>p268_149</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4505,11 +4685,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3561</v>
+        <v>7660</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>p231_254</t>
+          <t>p279_246</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4523,16 +4703,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>7528</v>
+        <v>4377</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>p279_112</t>
+          <t>p233_215</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -4541,19 +4721,109 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>2552</v>
+        <v>10646</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>p250_076</t>
+          <t>p254_341</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>9546</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>p273_003</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>11202</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>p270_082</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>10705</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>p287_002</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>5181</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>p239_244</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>p236_419</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4568,7 +4838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4589,16 +4859,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1075</v>
+        <v>1888</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>p277_187</t>
+          <t>p282_230</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4607,16 +4877,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1562</v>
+        <v>8301</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p269_246</t>
+          <t>p286_095</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4625,16 +4895,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10808</v>
+        <v>8541</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>p287_108</t>
+          <t>p286_340</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -4643,16 +4913,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3620</v>
+        <v>2851</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>p231_319</t>
+          <t>p250_388</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -4661,16 +4931,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1832</v>
+        <v>6586</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>p282_169</t>
+          <t>p227_014</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -4679,11 +4949,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1614</v>
+        <v>4640</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>p269_300</t>
+          <t>p230_102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4697,16 +4967,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>927</v>
+        <v>7551</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>p277_032</t>
+          <t>p279_135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -4715,16 +4985,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1211</v>
+        <v>3532</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>p277_335</t>
+          <t>p231_224</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -4733,16 +5003,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2169</v>
+        <v>4872</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>p276_145</t>
+          <t>p230_346</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4751,16 +5021,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8928</v>
+        <v>5344</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>p259_267</t>
+          <t>p239_409</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -4769,16 +5039,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6112</v>
+        <v>10369</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>p256_265</t>
+          <t>p254_046</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -4787,16 +5057,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6770</v>
+        <v>9869</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>p227_201</t>
+          <t>p273_333</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -4805,16 +5075,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5164</v>
+        <v>11445</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>p239_227</t>
+          <t>p270_334</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -4823,16 +5093,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9965</v>
+        <v>7007</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>p273_430</t>
+          <t>p274_046</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>cafeteria</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -4841,11 +5111,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>11165</v>
+        <v>10016</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>p270_045</t>
+          <t>p226_047</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4859,11 +5129,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8213</v>
+        <v>8023</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>p286_005</t>
+          <t>p243_208</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4877,16 +5147,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4364</v>
+        <v>7775</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>p233_198</t>
+          <t>p279_363</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -4895,16 +5165,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1646</v>
+        <v>10780</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>p269_332</t>
+          <t>p287_080</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -4913,16 +5183,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2811</v>
+        <v>6610</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>p250_346</t>
+          <t>p227_038</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -4931,11 +5201,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>8820</v>
+        <v>7695</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>p259_157</t>
+          <t>p279_281</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4949,16 +5219,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7903</v>
+        <v>5376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>p243_087</t>
+          <t>p239_441</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -4967,11 +5237,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6563</v>
+        <v>6044</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>p278_399</t>
+          <t>p256_197</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4985,16 +5255,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5272</v>
+        <v>1255</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>p239_335</t>
+          <t>p277_385</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -5003,16 +5273,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2559</v>
+        <v>7895</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>p250_083</t>
+          <t>p243_079</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -5021,16 +5291,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1107</v>
+        <v>1538</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>p277_219</t>
+          <t>p269_222</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -5039,16 +5309,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8780</v>
+        <v>5944</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>p259_117</t>
+          <t>p256_097</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -5057,16 +5327,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4796</v>
+        <v>6104</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>p230_265</t>
+          <t>p256_257</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -5075,16 +5345,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>10409</v>
+        <v>9641</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>p254_086</t>
+          <t>p273_099</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -5093,16 +5363,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>10481</v>
+        <v>8880</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>p254_165</t>
+          <t>p259_219</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -5111,16 +5381,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>9885</v>
+        <v>5276</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>p273_349</t>
+          <t>p239_340</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -5129,16 +5399,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>5567</v>
+        <v>8680</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>p267_131</t>
+          <t>p259_017</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -5147,16 +5417,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2847</v>
+        <v>622</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>p250_384</t>
+          <t>p244_140</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -5165,16 +5435,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>11273</v>
+        <v>10393</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>p270_155</t>
+          <t>p254_070</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -5183,16 +5453,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>380</v>
+        <v>3227</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>p236_398</t>
+          <t>p228_278</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -5201,16 +5471,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>738</v>
+        <v>11149</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>p244_259</t>
+          <t>p270_029</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -5219,16 +5489,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3994</v>
+        <v>5916</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>p268_229</t>
+          <t>p256_069</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -5237,16 +5507,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>995</v>
+        <v>4244</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>p277_105</t>
+          <t>p233_075</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -5255,16 +5525,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1968</v>
+        <v>7351</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>p282_310</t>
+          <t>p274_403</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -5273,16 +5543,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6778</v>
+        <v>8277</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>p227_210</t>
+          <t>p286_071</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -5291,16 +5561,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>8353</v>
+        <v>2297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>p286_147</t>
+          <t>p276_278</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -5309,16 +5579,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4232</v>
+        <v>9371</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>p233_062</t>
+          <t>p258_237</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -5327,16 +5597,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>6227</v>
+        <v>11016</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>p278_062</t>
+          <t>p287_320</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -5345,16 +5615,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5491</v>
+        <v>2671</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>p267_054</t>
+          <t>p250_198</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -5363,16 +5633,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>9837</v>
+        <v>7315</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>p273_299</t>
+          <t>p274_366</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -5381,16 +5651,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>2257</v>
+        <v>1211</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>p276_236</t>
+          <t>p277_335</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -5399,16 +5669,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4547</v>
+        <v>3632</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>p233_392</t>
+          <t>p231_332</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -5417,16 +5687,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>11072</v>
+        <v>10204</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>p287_376</t>
+          <t>p226_244</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -5435,16 +5705,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4138</v>
+        <v>9531</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>p268_374</t>
+          <t>p258_401</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>station</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -5453,16 +5723,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10704</v>
+        <v>2437</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>p287_001</t>
+          <t>p276_423</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -5471,16 +5741,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5671</v>
+        <v>7371</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>p267_237</t>
+          <t>p274_423</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -5489,16 +5759,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>184</v>
+        <v>10302</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>p236_200</t>
+          <t>p226_348</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -5507,16 +5777,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>6606</v>
+        <v>5148</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>p227_034</t>
+          <t>p239_211</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -5525,16 +5795,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3782</v>
+        <v>1107</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>p268_014</t>
+          <t>p277_219</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -5543,16 +5813,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>5100</v>
+        <v>1724</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>p239_163</t>
+          <t>p282_016</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -5561,11 +5831,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4756</v>
+        <v>248</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>p230_223</t>
+          <t>p236_265</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5579,16 +5849,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1430</v>
+        <v>3207</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>p269_110</t>
+          <t>p228_257</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>car</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -5597,16 +5867,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1940</v>
+        <v>3762</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>p282_282</t>
+          <t>p231_469</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -5615,16 +5885,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>9287</v>
+        <v>6634</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>p258_153</t>
+          <t>p227_062</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -5633,16 +5903,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>770</v>
+        <v>9279</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>p244_292</t>
+          <t>p258_145</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -5651,16 +5921,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1706</v>
+        <v>4476</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>p269_394</t>
+          <t>p233_319</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -5669,16 +5939,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>9717</v>
+        <v>3580</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>p273_175</t>
+          <t>p231_273</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -5687,16 +5957,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>6479</v>
+        <v>9044</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>p278_315</t>
+          <t>p259_386</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -5705,16 +5975,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>8976</v>
+        <v>3259</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>p259_317</t>
+          <t>p228_310</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -5723,16 +5993,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>6060</v>
+        <v>140</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>p256_213</t>
+          <t>p236_154</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -5741,16 +6011,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>7455</v>
+        <v>9689</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>p279_039</t>
+          <t>p273_147</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -5759,16 +6029,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6327</v>
+        <v>5823</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>p278_163</t>
+          <t>p267_396</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -5777,16 +6047,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>834</v>
+        <v>1980</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>p244_358</t>
+          <t>p282_322</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -5795,16 +6065,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>6215</v>
+        <v>10700</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>p278_050</t>
+          <t>p254_400</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -5813,16 +6083,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>260</v>
+        <v>1283</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>p236_277</t>
+          <t>p277_423</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -5831,16 +6101,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>336</v>
+        <v>2543</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>p236_354</t>
+          <t>p250_067</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -5849,16 +6119,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>5988</v>
+        <v>6431</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>p256_141</t>
+          <t>p278_267</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -5867,16 +6137,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>2269</v>
+        <v>8688</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>p276_249</t>
+          <t>p259_025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>babble</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -5885,16 +6155,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1626</v>
+        <v>899</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>p269_312</t>
+          <t>p277_002</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -5903,16 +6173,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>10760</v>
+        <v>11241</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>p287_060</t>
+          <t>p270_121</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -5921,19 +6191,109 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1027</v>
+        <v>7283</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>p277_139</t>
+          <t>p274_334</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>babble</t>
         </is>
       </c>
       <c r="D76" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>3770</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>p268_001</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>4868</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>p230_342</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>p276_044</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>p282_298</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>5380</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>p239_445</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>babble</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>15</v>
       </c>
     </row>
